--- a/JSON-data-exchange/json.and-excell-sample.xlsx
+++ b/JSON-data-exchange/json.and-excell-sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perthykjaerjensen/Documents/github/E23-y-programming/JSON-data-exchange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8776869D-6FC8-A34A-BFCF-6801FD344842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D5C03-6439-A545-956D-EA795FDB2333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27580" windowHeight="16840" xr2:uid="{C8275B07-51D7-034E-8DC9-58F7B9A85894}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -47,16 +47,16 @@
     <t>booked</t>
   </si>
   <si>
-    <t>miele</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>swiel</t>
+    <t>SnowWhite</t>
+  </si>
+  <si>
+    <t>SuperClean</t>
   </si>
 </sst>
 </file>
@@ -408,9 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F072152-EE5B-D440-96FB-370E5114FDE2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="360" zoomScaleNormal="360" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -430,10 +432,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -441,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -455,7 +457,29 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
